--- a/data/nessus-light2.xlsx
+++ b/data/nessus-light2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,202 +436,202 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>attributes</t>
+          <t>cves</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>cvss3_base_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cvss3_vector</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cvss_base_score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cvss_vector</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dependencies</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>description_i18n</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>doc_id</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intel_type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>is_cna</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>plugin_modification_date</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>plugin_publication_date</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>plugin_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>public_display</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>publication_date</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>references</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>required_keys</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>risk_factor</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>script_copyright</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>script_family</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>script_name</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>script_name_i18n</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>script_version</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>see_also</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>solution_i18n</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>synopsis</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>synopsis_i18n</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>vpr_metrics</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>sensor</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>language_code</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>script_id</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>cvss</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>cpe</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cves</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cvss3_base_score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>cvss3_temporal_score</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>cvss3_temporal_vector</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cvss3_vector</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cvss_base_score</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>cvss_temporal_score</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>cvss_temporal_vector</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>cvss_vector</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>dependencies</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>description_i18n</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>doc_id</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>exploitability_ease</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>filename</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>intel_type</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_cna</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>patch_publication_date</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>plugin_modification_date</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>plugin_publication_date</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>plugin_type</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>public_display</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_date</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>references</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>required_keys</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>risk_factor</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>script_copyright</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>script_family</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>script_name</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>script_name_i18n</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>script_version</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>see_also</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>solution</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>solution_i18n</t>
-        </is>
-      </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>synopsis</t>
+          <t>available_languages</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>synopsis_i18n</t>
+          <t>risk_factor_orig</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>vpr_metrics</t>
+          <t>risk_factor_score</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>vuln_publication_date</t>
+          <t>xrefs_orig</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -641,440 +641,348 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>sensor</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>language_code</t>
+          <t>excluded_keys</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>script_id</t>
+          <t>supported_sensors</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>cvss</t>
+          <t>required_udp_ports</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>available_languages</t>
+          <t>preferences</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>risk_factor_orig</t>
+          <t>required_ports</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>risk_factor_score</t>
+          <t>tvdb_export_source</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>vpr_score</t>
+          <t>pluginPublicationDate</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>xrefs_orig</t>
+          <t>pluginModificationDate</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>locale</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>excluded_keys</t>
+          <t>availableLocales</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>supported_sensors</t>
+          <t>vpr_risk_factor</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>required_udp_ports</t>
+          <t>cisaKnownExploitedDate</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>preferences</t>
+          <t>configurationMessages</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>required_ports</t>
+          <t>cvssV2Severity</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>cvss_score_source</t>
+          <t>cvssV3Severity</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>cvss3_score_source</t>
+          <t>vprSeverity</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>tvdb_export_source</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>vulnPublicationDate</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>patchPublicationDate</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>pluginPublicationDate</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>pluginModificationDate</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>locale</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>availableLocales</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>vpr_risk_factor</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>cisaKnownExploitedDate</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>configurationMessages</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>cvssV2Severity</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>cvssV3Severity</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>vprSeverity</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
           <t>severity</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>exploit_available</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>generated_plugin</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>stig_severity</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{'attribute_name': 'cvss_score_source', 'attribute_value': 'CVE-2022-3786'}, {'attribute_name': 'jsa', 'attribute_value': 'JSA69999'}, {'attribute_name': 'thorough_tests', 'attribute_value': 'false'}, {'attribute_name': 'vpr_score', 'attribute_value': '5.1'}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['cpe:/o:juniper:junos']</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['CVE-2022-3602', 'CVE-2022-3786']</t>
+          <t>CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:N</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>CVSS2#AV:N/AC:L/Au:N/C:P/I:P/A:N</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CVSS:3.0/E:U/RL:O/RC:C</t>
+          <t>['ssl_certificate_chain.nasl']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:N/A:H</t>
+          <t>The server's X.509 certificate cannot be trusted. This situation can occur in three different ways, in which the chain of trust can be broken, as stated below :
+  - First, the top of the certificate chain sent by the     server might not be descended from a known public     certificate authority. This can occur either when the     top of the chain is an unrecognized, self-signed     certificate, or when intermediate certificates are     missing that would connect the top of the certificate     chain to a known public certificate authority.
+  - Second, the certificate chain may contain a certificate     that is not valid at the time of the scan. This can     occur either when the scan occurs before one of the     certificate's 'notBefore' dates, or after one of the     certificate's 'notAfter' dates.
+  - Third, the certificate chain may contain a signature     that either didn't match the certificate's information     or could not be verified. Bad signatures can be fixed by     getting the certificate with the bad signature to be     re-signed by its issuer. Signatures that could not be     verified are the result of the certificate's issuer     using a signing algorithm that Nessus either does not     support or does not recognize.
+If the remote host is a public host in production, any break in the chain makes it more difficult for users to verify the authenticity and identity of the web server. This could make it easier to carry out man-in-the-middle attacks against the remote host.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>{'ja_JP': 'サーバーの X.509 証明書は信頼できません。以下に説明するように、この状況は3つの異なる経緯で発生する可能性があり、これによって信頼チェーンが破損する可能性があります。\n\n  - まず、サーバーから送信された、証明書チェーンの最上位の証明書が、既知の公共認証期間由来のものではない可能性があります。これは、チェーンの最上位が正当に認められていない自己署名証明書であるか、または証明書チェーンの最上位と既知の公共認証機関とをつなぐ中間の証明書が見つからない場合に起こることがあります。\n\n  - 2 番目に、スキャンする時点で有効でない証明書が証明書チェーンに含まれていることがあります。これは、証明書の「notBefore」（有効期限の開始日時）日付よりも前または「notAfter」（有効期限の終了日時）日付よりも後にスキャンが実行された場合に起こることがあります。\n\n  - 3 番目に、証明書チェーンに、証明書の情報と一致しなかった署名が含まれているか、検証できなかった署名が含まれている可能性があります。署名が不適切な場合、不適切な署名が含まれている証明書に発行者が再度署名することで修正できます。証明書を検証できなかった場合、その原因は、証明書の発行者が、 Nessus がサポートしていないか認識しない署名アルゴリズムを使用したことにあります。\n\nリモートホストが稼働時の公開ホストの場合、証明書チェーンの切断により、ユーザーが Web サーバーの信憑性と ID を検証するのがより困難になります。これにより、リモートホストに対して中間者攻撃を実行することがより簡単になることがあります。', 'zh_CN': '无法信任服</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>51192</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CVSS2#E:U/RL:OF/RC:C</t>
+          <t>ssl_signed_certificate.nasl</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CVSS2#AV:N/AC:L/Au:N/C:N/I:N/A:C</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>['junos_version.nasl']</t>
-        </is>
-      </c>
+          <t>sensor</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>The version of Junos OS installed on the remote host is affected by multiple vulnerabilities as referenced in the JSA69999 advisory.
-  - A buffer overrun can be triggered in X.509 certificate verification, specifically in name constraint     checking. Note that this occurs after certificate chain signature verification and requires either a CA to     have signed a malicious certificate or for an application to continue certificate verification despite     failure to construct a path to a trusted issuer. An attacker can craft a malicious email address in a     certificate to overflow an arbitrary number of bytes containing the `.' character (decimal 46) on the     stack. This buffer overflow could result in a crash (causing a denial of service). In a TLS client, this     can be triggered by connecting to a malicious server. In a TLS server, this can be triggered if the server     requests client authentication and a malicious client connects. (CVE-2022-3786)
-  - A buffer overrun can be triggered in X.509 certificate verification, specifically in name constraint     checking. Note that this occurs after certificate chain signature verification and requires either a CA to     have signed the malicious certificate or for the application to continue certificate verification despite     failure to construct a path to a trusted issuer. An attacker can craft a malicious email address to     overflow four attacker-controlled bytes on the stack. This buffer overflow could result in a crash     (causing a denial of service) or potentially remote code execution. Many platforms implement stack     overflow protections which would mitigate against the risk of remote code execution. The risk may be     further mitigated based on stack layout for any given platform/compiler. Pre-announcements of     CVE-2022-3602 described this issue as CRITICAL. Further analysis based on some of the mitigating factors     described above have led this to be downgraded to HIGH. Users are still encouraged to upgrade to a new     version as soon as possible. In a TLS client, this can be triggered by connecting to a malicious server.
-    In a TLS server, this can be triggered if the server requests client authentication and a malicious client     connects. (CVE-2022-3602)
-Note that Nessus has not tested for these issues but has instead relied only on the application's self-reported version number.</t>
+          <t>2020-04-27T00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'ja_JP': 'リモートホストにインストールされたJunos OSのバージョンは、JSA69999アドバイザに記載されている複数の脆弱性の影響を受けます。\n\n  - X.509 証明書の検証、特に名前の制約のチェックで、バッファオーバーランが発生する可能性があります。これは証明書チェーン署名の検証後に発生し、信頼できる発行者へのパスを構築できないにもかかわらず、CA が悪意のある証明書に署名するか、アプリケーションが証明書の検証を続行する必要があることに注意してください。攻撃者は、証明書の悪意のあるメールアドレスを細工し、スタック上の「。」文字 (10 進数の 46) を含む任意のバイト数をオーバーフローさせる可能性があります。このバッファオーバーフローにより、クラッシュが発生する可能性があります (サービス拒否が引き起こされます)。TLS クライアントでは、悪意のあるサーバーに接続することでこれが発生する可能性があります。TLS サーバーでは、サーバーがクライアント認証をリクエストし、悪意のあるクライアントが接続すると、これが発生する可能性があります。(CVE-2022-3786)\n\n  - X.509 証明書の検証、特に名前の制約のチェックで、バッファオーバーランが発生する可能性があります。これは証明書チェーン署名の検証後に発生し、信頼できる発行者へのパスを構築できないにもかかわらず、CA が悪意のある証明書に署名するか、アプリケーションが証明書の検証を続行する必要があることに注意してください。攻撃者は、悪意のあるメールアドレスを細工して、攻撃者が制御する 4 バイトをスタックでオーバーフローさせる可能性があります。このバッファオーバーフローにより、クラッシュが発生したり (サービス拒否が引き起こされます)、リモートコード実行が発生したりする可能性があります。多くのプラットフォームは、リモートコード実行のリスクを軽減するスタックオーバーフロー保護を実装しています。任意のプラットフォーム / コンパイラのスタックレイアウトに基づいて、リスクがさらに緩和される可能性があります。CVE-2022-3602 のプレアナウンスでは、この問題を「重要度最高」と説明しています。上記の緩和要因のいくつかに基づくさらなる分析により、これは「重要度高」にダウングレードされています。ユーザーには、依然として新しいバージョンへ至急アップグレードすることが推奨されています。TLS クライアントでは、悪意のあるサーバーに接続することでこれが発生する可能性があります。\n    TLS サーバーでは、サーバーがクライアント認証をリクエストし、悪意のあるクライアントが接続すると、これが発生する可能性があります。(CVE-2022-3602)\n\nNessus はこれらの問題をテストしておらず、代わりにアプリケーションの自己報告されたバージョン番号にのみ依存しています。', 'zh_CN': '远程主机上安装的 Junos OS 版本受到 JSA69999 公告中提及的多个漏洞的影响。\n\n  - 缓冲区溢出可在 X.509 证书验证中触发，在名称限制检查中更是如此。请注意，这会在证书链签名验证之后发生，并且需要 CA 签署恶意证书，或者要求应用程序在未能构建到受信任颁发者的路径的情况下继续证书验证。攻击者可特制证书中的恶意电子邮件地址，以在堆栈上溢出包含“.”字符（十进制 46）的任意数量的字节。此缓冲区溢出可能会导致崩溃（造成拒绝服务）。在 TLS 客户端中，这可通过连接到恶意服务器来触发。在 TLS 服务器中，如果服务器请求客户端认证并连接了恶意客户端，就会触发此问题。(CVE-2022-3786)\n\n  - 缓冲区溢出可在 X.509 证书验证中触发，在名称限制检查中更是如此。请注意，这会在证书链签名验证之后发生，并且需要 CA 签署恶意证书，或者要求应用程序在未能构建到受信任颁发者的路径的情况下继续证书验证。攻击者可以构建恶意电子邮件地址，使堆栈上四个由攻击者控制的字节溢出。此缓冲区溢出可能会导致崩溃（造成拒绝服务）或远程代码执行。许多平台实现了堆栈溢出保护，可降低远程代码执行的风险。可根据任何给定平台/编译器的堆栈布局进一步缓解此风险。 CVE-2022-3602 的预先公告将此问题描述为“危急”。基于上述一些缓解因素的进一步分析可将此问题降级为“高危”。仍建议用户尽快升级到新版本。在 TLS 客户端中，这可通过连接到恶意服务器来触发。\n    在 TLS 服务器中，如果服务器请求客户端认证并连接了恶意客户端，就会触发此问题。(CVE-2022-3602)\n\n请注意，Nessus 尚未测试这些问题，而是只依据应用程序自我报告的版本号进行判断。', 'zh_TW': '遠端主機上安裝的 Junos OS 版本受到 JSA69999 公告中提及的多個弱點影響。\n\n  - 在 X.509 憑證驗證中可觸發緩衝區滿溢，特別是在名稱限制檢查中。請注意，此問題會在憑證鏈簽章驗證之後發生，且需要 CA 簽署惡意憑證，或是即使無法建構受信任的簽發者路徑，應用程式仍需繼續進行憑證驗證。攻擊者可在憑證中建構惡意電子郵件地址，造成堆疊中溢出任意數量包含「.」的位元組 (十進位 46)。此緩衝區溢位問題可能會導致當機 (造成拒絕服務攻擊)。在 TLS 用戶端中，藉由連線至惡意伺服器即可觸發此問題。在 TLS 伺服器中，如果伺服器要求用戶端驗證且惡意用戶端連線，則可觸發此問題。(CVE-2022-3786)\n\n  - 在 X.509 憑證驗證中可觸發緩衝區滿溢，特別是在名稱限制檢查中。請注意，此問題會在憑證鏈簽章驗證之後發生，且需要 CA 簽署惡意憑證，或是即使無法建構受信任的簽發者路徑，應用程式仍需繼續進行憑證驗證。攻擊者可建構惡意電子郵件地址，造成堆疊中溢出四個受攻擊者控制的位元組。此緩衝區溢位問題可能會導致當機 (造成拒絕服務攻擊)，或觸發遠端程式碼執行攻擊。許多平台已實作堆疊溢位保護措施，可減輕遠端程式碼執行的風險。可根據任何指定平台/編譯器的堆疊配置進一步降低風險。 CVE-2022-3602 的預先公告將此問題描述為「重大」。根據上述一些減輕風險的因素進行進一步分析後，已將此問題降級為「高風險」。仍建議使用者盡快升級至新版本。在 TLS 用戶端中，藉由連線至惡意伺服器即可觸發此問題。\n    在 TLS 伺服器中，如果伺服器要求用戶端驗證且惡意用戶端連線，則可觸發此問題。(CVE-2022-3602)\n\n請注意，Nessus 並未測試這些問題，而是僅依據應用程式自我報告的版本號碼作出判斷。'}</t>
+          <t>2010-12-15T00:00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>173835</t>
+          <t>remote</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>No known exploits are available</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>juniper_jsa69999.nasl</t>
-        </is>
-      </c>
+          <t>51192</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>sensor</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
+          <t>[{'type': 'unknown', 'url': 'https://www.itu.int/rec/T-REC-X.509/en', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://en.wikipedia.org/wiki/X.509', 'id_type': None, 'id': None}]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>['SSL/BrokenCAChain']</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2022-11-01T00:00:00</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>2023-04-05T00:00:00</t>
+          <t>This script is Copyright (C) 2010-2020 Tenable Network Security, Inc.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2023-04-04T00:00:00</t>
+          <t>General</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>combined</t>
+          <t>SSL Certificate Cannot Be Trusted</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>173835</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+          <t>{'ja_JP': 'SSL 証明書は信頼できません', 'zh_CN': 'SSL 证书无法受到信任', 'zh_TW': '無法信任 SSL 憑證'}</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>[{'type': 'advisory', 'url': None, 'id_type': 'JSA', 'id': 'JSA69999'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-3602', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-3602'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-3786', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-3786'}, {'type': 'unknown', 'url': 'http://www.nessus.org/u?99086ea4', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'http://www.nessus.org/u?b616ed59', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'http://www.nessus.org/u?0d4fd08b', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'http://www.nessus.org/u?a391b314', 'id_type': None, 'id': None}]</t>
+          <t>['https://www.itu.int/rec/T-REC-X.509/en', 'https://en.wikipedia.org/wiki/X.509']</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>['Host/Juniper/JUNOS/Version']</t>
+          <t>Purchase or generate a proper SSL certificate for this service.</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>{'ja_JP': 'このサービス用の適切な バージョン 1 証明書を、購入または生成してください。', 'zh_CN': '购买或生成适用于此服务的适当证书。', 'zh_TW': '購買或產生適合此伺服器的 SSL 憑證。'}</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>This script is Copyright (C) 2023 and is owned by Tenable, Inc. or an Affiliate thereof.</t>
+          <t>The SSL certificate for this service cannot be trusted.</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Junos Local Security Checks</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Juniper Junos OS Multiple Vulnerabilities (JSA69999)</t>
-        </is>
-      </c>
+          <t>{'ja_JP': 'このサービスの SSL 証明書は信頼できません。', 'zh_CN': '无法信任该服务的 SSL 证书。', 'zh_TW': '無法信任此服務的 SSL 憑證。'}</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>{'ja_JP': 'Juniper Junos OSの複数の脆弱性 (JSA69999)', 'zh_CN': 'Juniper Junos OS 多个漏洞 (JSA69999)', 'zh_TW': 'Juniper Junos OS 多個弱點 (JSA69999)'}</t>
+          <t>nessus</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>en_US</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>['http://www.nessus.org/u?99086ea4', 'http://www.nessus.org/u?b616ed59', 'http://www.nessus.org/u?0d4fd08b', 'http://www.nessus.org/u?a391b314']</t>
+          <t>51192</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Apply the relevant Junos software release referenced in Juniper advisory JSA70213</t>
+          <t>{'cvssv2_vector': 'CVSS2#AV:N/AC:L/Au:N/C:P/I:P/A:N', 'cvssv3_vector': 'CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:N', 'cvssv2_vector_base': 'AV:N/AC:L/Au:N/C:P/I:P/A:N', 'cvssv3_vector_base': 'AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:N', 'cvssv3_version': '3.0', 'cvssv2_score': 6.4, 'cvssv3_score': 6.5, 'cvssv2_temporal_vector': None, 'cvssv3_temporal_vector': None, 'cvssv2_temporal_vector_base': None, 'cvssv3_temporal_vector_base': None, 'cvssv2_temporal_score': None, 'cvssv3_temporal_score': None, 'cvssv2_environmental_vector': None, 'cvssv2_environmental_score': None, 'cvssv3_environmental_vector': None, 'cvssv3_environmental_score': None, 'rating': None, 'source': None, 'cvssv2_risk_factor': 'Medium', 'cvssv3_risk_factor': 'Medium'}</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>{'ja_JP': 'Juniper アドバイザリ JSA70213に記載されている該当の Junos ソフトウェアリリースを適用してください', 'zh_CN': '应用 Juniper 公告 JSA70213 中提及的相关 Junos 软件版本', 'zh_TW': '套用 Juniper 公告 JSA70213 中所述的相關 Junos 軟體版本'}</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>The remote device is missing a vendor-supplied security patch.</t>
+          <t>['ja_JP', 'zh_CN', 'zh_TW', 'en_US']</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>{'ja_JP': 'リモートデバイスに、ベンダーが提供したセキュリティパッチがありません。', 'zh_CN': '远程设备缺少供应商提供的安全补丁。', 'zh_TW': '遠端裝置缺少廠商提供的安全性修補程式。'}</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>{'age_of_vuln': '180 - 365 days', 'cvss3_impact_score': 3.5999999046325684, 'exploit_code_maturity': 'Unproven', 'generated_at': '2023-09-27T06:02:20', 'predicted_impact_score': False, 'product_coverage': 'Medium', 'threat_intensity_last28_days': 'Very Low', 'threat_model_type': 'non_early_life', 'threat_model_version': 'v3', 'threat_recency': '30 to 120 days', 'threat_sources_last28': 'No recorded events', 'tvs': 5.099999904632568, 'vulnerability_id': 'CVE-2022-3602'}</t>
-        </is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM2" t="n">
+        <v>3</v>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>2022-11-01T00:00:00</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>{'JSA': ['JSA69999']}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>nessus</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>en_US</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>173835</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>{'cvssv2_vector': 'CVSS2#AV:N/AC:L/Au:N/C:N/I:N/A:C', 'cvssv3_vector': 'CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:N/A:H', 'cvssv2_vector_base': 'AV:N/AC:L/Au:N/C:N/I:N/A:C', 'cvssv3_vector_base': 'AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:N/A:H/E:U/RL:O/RC:C', 'cvssv3_version': '3.0', 'cvssv2_score': 7.8, 'cvssv3_score': 7.5, 'cvssv2_temporal_vector': None, 'cvssv3_temporal_vector': 'CVSS:3.0/E:U/RL:O/RC:C', 'cvssv2_temporal_vector_base': None, 'cvssv3_temporal_vector_base': 'E:U/RL:O/RC:C', 'cvssv2_temporal_score': 5.8, 'cvssv3_temporal_score': 6.5, 'cvssv2_environmental_vector': None, 'cvssv2_environmental_score': None, 'cvssv3_environmental_vector': None, 'cvssv3_environmental_score': None, 'rating': None, 'source': None, 'cvssv2_risk_factor': 'High', 'cvssv3_risk_factor': 'High'}</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>['ja_JP', 'zh_CN', 'zh_TW', 'en_US']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="AV2" t="n">
-        <v>4</v>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>{'file_name': 'all-202310181805.tar.gz', 'file_path': 'exports/nessus/v1', 'data_file_name': '51192', 'created_at': '2023-10-18T18:52:47', 'updated_at': '2023-10-18T18:52:47'}</t>
+        </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>12/15/2010</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>[{'xref_name': 'JSA', 'xref_value': 'JSA69999'}]</t>
+          <t>4/27/2020</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>en</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+          <t>['ja', 'zh-CN', 'zh-TW', 'en']</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1082,363 +990,262 @@
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>CVE-2022-3786</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>{'file_name': 'all-202310181805.tar.gz', 'file_path': 'exports/nessus/v1', 'data_file_name': '173835', 'created_at': '2023-10-18T18:52:41', 'updated_at': '2023-10-18T18:52:41'}</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>11/1/2022</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>11/1/2022</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>4/4/2023</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>4/5/2023</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>['ja', 'zh-CN', 'zh-TW', 'en']</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[{'attribute_name': 'cvss_score_source', 'attribute_value': 'CVE-2022-2068'}, {'attribute_name': 'generated_plugin', 'attribute_value': 'current'}, {'attribute_name': 'iava', 'attribute_value': '2022-A-0121-S'}, {'attribute_name': 'iava', 'attribute_value': '2022-A-0186-S'}, {'attribute_name': 'iava', 'attribute_value': '2022-A-0257-S'}, {'attribute_name': 'iava', 'attribute_value': '2022-A-0265-S'}, {'attribute_name': 'iava', 'attribute_value': '2022-A-0452-S'}, {'attribute_name': 'stig_severity', 'attribute_value': 'I'}, {'attribute_name': 'thorough_tests', 'attribute_value': 'false'}, {'attribute_name': 'vpr_score', 'attribute_value': '7.4'}]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['p-cpe:/a:amazon:linux:openssl', 'p-cpe:/a:amazon:linux:openssl-debuginfo', 'p-cpe:/a:amazon:linux:openssl-debugsource', 'p-cpe:/a:amazon:linux:openssl-devel', 'p-cpe:/a:amazon:linux:openssl-libs', 'p-cpe:/a:amazon:linux:openssl-libs-debuginfo', 'p-cpe:/a:amazon:linux:openssl-perl', 'cpe:/o:amazon:linux:2023']</t>
-        </is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['CVE-2022-0778', 'CVE-2022-1292', 'CVE-2022-1343', 'CVE-2022-1434', 'CVE-2022-1473', 'CVE-2022-2068', 'CVE-2022-2097', 'CVE-2022-3602', 'CVE-2022-3786']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+          <t>CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>CVSS2#AV:N/AC:L/Au:N/C:P/I:P/A:N</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CVSS:3.0/E:F/RL:O/RC:C</t>
+          <t>['ssl_certificate_chain.nasl']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>The server's X.509 certificate cannot be trusted. This situation can occur in three different ways, in which the chain of trust can be broken, as stated below :
+  - First, the top of the certificate chain sent by the     server might not be descended from a known public     certificate authority. This can occur either when the     top of the chain is an unrecognized, self-signed     certificate, or when intermediate certificates are     missing that would connect the top of the certificate     chain to a known public certificate authority.
+  - Second, the certificate chain may contain a certificate     that is not valid at the time of the scan. This can     occur either when the scan occurs before one of the     certificate's 'notBefore' dates, or after one of the     certificate's 'notAfter' dates.
+  - Third, the certificate chain may contain a signature     that either didn't match the certificate's information     or could not be verified. Bad signatures can be fixed by     getting the certificate with the bad signature to be     re-signed by its issuer. Signatures that could not be     verified are the result of the certificate's issuer     using a signing algorithm that Nessus either does not     support or does not recognize.
+If the remote host is a public host in production, any break in the chain makes it more difficult for users to verify the authenticity and identity of the web server. This could make it easier to carry out man-in-the-middle attacks against the remote host.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
+          <t>{'ja_JP': 'サーバーの X.509 証明書は信頼できません。以下に説明するように、この状況は3つの異なる経緯で発生する可能性があり、これによって信頼チェーンが破損する可能性があります。\n\n  - まず、サーバーから送信された、証明書チェーンの最上位の証明書が、既知の公共認証期間由来のものではない可能性があります。これは、チェーンの最上位が正当に認められていない自己署名証明書であるか、または証明書チェーンの最上位と既知の公共認証機関とをつなぐ中間の証明書が見つからない場合に起こることがあります。\n\n  - 2 番目に、スキャンする時点で有効でない証明書が証明書チェーンに含まれていることがあります。これは、証明書の「notBefore」（有効期限の開始日時）日付よりも前または「notAfter」（有効期限の終了日時）日付よりも後にスキャンが実行された場合に起こることがあります。\n\n  - 3 番目に、証明書チェーンに、証明書の情報と一致しなかった署名が含まれているか、検証できなかった署名が含まれている可能性があります。署名が不適切な場合、不適切な署名が含まれている証明書に発行者が再度署名することで修正できます。証明書を検証できなかった場合、その原因は、証明書の発行者が、 Nessus がサポートしていないか認識しない署名アルゴリズムを使用したことにあります。\n\nリモートホストが稼働時の公開ホストの場合、証明書チェーンの切断により、ユーザーが Web サーバーの信憑性と ID を検証するのがより困難になります。これにより、リモートホストに対して中間者攻撃を実行することがより簡単になることがあります。', 'zh_CN': '无法信任服</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>51192</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CVSS2#E:F/RL:OF/RC:C</t>
+          <t>ssl_signed_certificate.nasl</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CVSS2#AV:N/AC:L/Au:N/C:C/I:C/A:C</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>['ssh_get_info.nasl']</t>
-        </is>
-      </c>
+          <t>sensor</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>It is, therefore, affected by multiple vulnerabilities as referenced in the ALAS2023-2023-051 advisory.
-  - The BN_mod_sqrt() function, which computes a modular square root, contains a bug that can cause it to loop     forever for non-prime moduli. Internally this function is used when parsing certificates that contain     elliptic curve public keys in compressed form or explicit elliptic curve parameters with a base point     encoded in compressed form. It is possible to trigger the infinite loop by crafting a certificate that has     invalid explicit curve parameters. Since certificate parsing happens prior to verification of the     certificate signature, any process that parses an externally supplied certificate may thus be subject to a     denial of service attack. The infinite loop can also be reached when parsing crafted private keys as they     can contain explicit elliptic curve parameters. Thus vulnerable situations include: - TLS clients     consuming server certificates - TLS servers consuming client certificates - Hosting providers taking     certificates or private keys from customers - Certificate authorities parsing certification requests from     subscribers - Anything else which parses ASN.1 elliptic curve parameters Also any other applications that     use the BN_mod_sqrt() where the attacker can control the parameter values are vulnerable to this DoS     issue. In the OpenSSL 1.0.2 version the public key is not parsed during initial parsing of the certificate     which makes it slightly harder to trigger the infinite loop. However any operation which requires the     public key from the certificate will trigger the infinite loop. In particular the attacker can use a self-     signed certificate to trigger the loop during verification of the certificate signature. This issue     affects OpenSSL versions 1.0.2, 1.1.1 and 3.0. It was addressed in the releases of 1.1.1n and 3.0.2 on the     15th March 2022. Fixed in OpenSSL 3.0.2 (Affected 3.0.0,3.0.1). Fixed in OpenSSL 1.1.1n (Affected     1.1.1-1.1.1m). Fixed in OpenSSL 1.0.2zd (Affected 1.0.2-1.0.2zc). (CVE-2022-0778)
-  - The c_rehash script does not properly sanitise shell metacharacters to prevent command injection. This     script is distributed by some operating systems in a manner where it is automatically executed. On such     operating systems, an attacker could execute arbitrary commands with the privileges of the script. Use of     the c_rehash script is considered obsolete and should be replaced by the OpenSSL rehash command line tool.
-    Fixed in OpenSSL 3.0.3 (Affected 3.0.0,3.0.1,3.0.2). Fixed in OpenSSL 1.1.1o (Affected 1.1.1-1.1.1n).
-    Fixed in OpenSSL 1.0.2ze (Affected 1.0.2-1.0.2zd). (CVE-2022-1292)
-  - The function `OCSP_basic_verify` verifies the signer certificate on an OCSP response. In the case where     the (non-default) flag OCSP_NOCHECKS is used then the response will be positive (meaning a successful     verification) even in the case where the response signing certificate fails to verify. It is anticipated     that most users of `OCSP_basic_verify` will not use the OCSP_NOCHECKS flag. In this case the     `OCSP_basic_verify` function will return a negative value (indicating a fatal error) in the case of a     certificate verification failure. The normal expected return value in this case would be 0. This issue     also impacts the command line OpenSSL ocsp application. When verifying an ocsp response with the
-    -no_cert_checks option the command line application will report that the verification is successful even     though it has in fact failed. In this case the incorrect successful response will also be accompanied by     error messages showing the failure and contradicting the apparently successful result. Fixed in OpenSSL     3.0.3 (Affected 3.0.0,3.0.1,3.0.2). (CVE-2022-1343)
-  - The OpenSSL 3.0 implementation of the RC4-MD5 ciphersuite incorrectly uses the AAD data as the MAC key.
-    This makes the MAC key trivially predictable. An attacker could exploit this issue by performing a man-in-     the-middle attack to modify data being sent from one endpoint to an OpenSSL 3.0 recipient such that the     modified data would still pass the MAC integrity check. Note that data sent from an OpenSSL 3.0 endpoint     to a non-OpenSSL 3.0 endpoint will always be rejected by the recipient and the connection will fail at     that point. Many application protocols require data to be sent from the client to the server first.
-    Therefore, in such a case, only an OpenSSL 3.0 server would be impacted when talking to a non-OpenSSL 3.0     client. If both endpoints are OpenSSL 3.0 then the attacker could modify data being sent in both     directions. In this case both clients and servers could be affected, regardless of the application     protocol. Note that in the absence of an attacker this bug means that an OpenSSL 3.0 endpoint     communicating with a non-OpenSSL 3.0 endpoint will fail to complete the handshake when using this     ciphersuite. The confidentiality of data is not impacted by this issue, i.e. an attacker cannot decrypt     data that has been encrypted using this ciphersuite - they can only modify it. In order for this attack to     work both endpoints must legitimately negotiate the RC4-MD5 ciphersuite. This ciphersuite is not compiled     by default in OpenSSL 3.0, and is not available within the default provider or the default ciphersuite     list. This ciphersuite will never be used if TLSv1.3 has been negotiated. In order for an OpenSSL 3.0     endpoint to use this ciphersuite the following must have occurred: 1) OpenSSL must have been compiled with     the (non-default) compile time option enable-weak-ssl-ciphers 2) OpenSSL must have had the legacy provider     explicitly loaded (either through application code or via configuration) 3) The ciphersuite must have been     explicitly added to the ciphersuite list 4) The libssl security level must have been set to 0 (default is     1) 5) A version of SSL/TLS below TLSv1.3 must have been negotiated 6) Both endpoints must negotiate the     RC4-MD5 ciphersuite in preference to any others that both endpoints have in common Fixed in OpenSSL 3.0.3     (Affected 3.0.0,3.0.1,3.0.2). (CVE-2022-1434)
-  - The OPENSSL_LH_flush() function, which empties a hash table, contains a bug that breaks reuse of the     memory occuppied by the removed hash table entries. This function is used when decoding certificates or     keys. If a long lived process periodically decodes certificates or keys its memory usage will expand     without bounds and the process might be terminated by the operating system causing a denial of service.
-    Also traversing the empty hash table entries will take increasingly more time. Typically such long lived     processes might be TLS clients or TLS servers configured to accept client certificate authentication. The     function was added in the OpenSSL 3.0 version thus older releases are not affected by the issue. Fixed in     OpenSSL 3.0.3 (Affected 3.0.0,3.0.1,3.0.2). (CVE-2022-1473)
-  - In addition to the c_rehash shell command injection identified in CVE-2022-1292, further circumstances     where the c_rehash script does not properly sanitise shell metacharacters to prevent command injection     were found by code review. When the CVE-2022-1292 was fixed it was not discovered that there are other     places in the script where the file names of certificates being hashed were possibly passed to a command     executed through the shell. This script is distributed by some operating systems in a manner where it is     automatically executed. On such operating systems, an attacker could execute arbitrary commands with the     privileges of the script. Use of the c_rehash script is considered obsolete and should be replaced by the     OpenSSL rehash command line tool. Fixed in OpenSSL 3.0.4 (Affected 3.0.0,3.0.1,3.0.2,3.0.3). Fixed in     OpenSSL 1.1.1p (Affected 1.1.1-1.1.1o). Fixed in OpenSSL 1.0.2zf (Affected 1.0.2-1.0.2ze). (CVE-2022-2068)
-  - AES OCB mode for 32-bit x86 platforms using the AES-NI assembly optimised implementation will not encrypt     the entirety of the data under some circumstances. This could reveal sixteen bytes of data that was     preexisting in the memory that wasn't written. In the special case of in place encryption, sixteen bytes     of the plaintext would be revealed. Since OpenSSL does not support OCB based cipher suites for TLS and     DTLS, they are both unaffected. Fixed in OpenSSL 3.0.5 (Affected 3.0.0-3.0.4). Fixed in OpenSSL 1.1.1q     (Affected 1.1.1-1.1.1p). (CVE-2022-2097)
-  - A buffer overrun can be triggered in X.509 certificate verification, specifically in name constraint     checking. Note that this occurs after certificate chain signature verification and requires either a CA to     have signed the malicious certificate or for the application to continue certificate verification despite     failure to construct a path to a trusted issuer. An attacker can craft a malicious email address to     overflow four attacker-controlled bytes on the stack. This buffer overflow could result in a crash     (causing a denial of service) or potentially remote code execution. Many platforms implement stack     overflow protections which would mitigate against the risk of remote code execution. The risk may be     further mitigated based on stack layout for any given platform/compiler. Pre-announcements of     CVE-2022-3602 described this issue as CRITICAL. Further analysis based on some of the mitigating factors     described above have led this to be downgraded to HIGH. Users are still encouraged to upgrade to a new     version as soon as possible. In a TLS client, this can be triggered by connecting to a malicious server.
-    In a TLS server, this can be triggered if the server requests client authentication and a malicious client     connects. Fixed in OpenSSL 3.0.7 (Affected 3.0.0,3.0.1,3.0.2,3.0.3,3.0.4,3.0.5,3.0.6). (CVE-2022-3602)
-  - A buffer overrun can be triggered in X.509 certificate verification, specifically in name constraint     checking. Note that this occurs after certificate chain signature verification and requires either a CA to     have signed a malicious certificate or for an application to continue certificate verification despite     failure to construct a path to a trusted issuer. An attacker can craft a malicious email address in a     certificate to overflow an arbitrary number of bytes containing the `.' character (decimal 46) on the     stack. This buffer overflow could result in a crash (causing a denial of service). In a TLS client, this     can be triggered by connecting to a malicious server. In a TLS server, this can be triggered if the server     requests client authentication and a malicious client connects. (CVE-2022-3786)
-Note that Nessus has not tested for these issues but has instead relied only on the application's self-reported version number.</t>
+          <t>2020-04-27T00:00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'ja_JP': 'したがって、ALAS2023-2023-051 のアドバイザリに記載されている複数の脆弱性の影響を受けます。\n\n  - モジュラー平方根を計算する BN_mod_sqrt() 関数に、非素数の係数に対して永久にループするバグが含まれています。内部的に、この関数は圧縮形式の楕円曲線公開鍵または圧縮形式でエンコードされたベースポイントを持つ明示的な楕円曲線パラメーターを含む証明書を解析する際に使用されます。無効な明示的な曲線パラメーターを持つ証明書を作成することで、無限ループを発生させることが可能です。証明書の解析は、証明書の署名の検証前に行われるため、外部から提供された証明書を解析するプロセスは、サービス拒否攻撃を受ける可能性があります。細工された秘密鍵を解析する際に、明示的な楕円曲線パラメーターを含む可能性があるため、無限ループに達する可能性もあります。したがって、以下の脆弱な状況が含まれます。- サーバー証明書を消費する TLS クライアント - クライアント証明書を消費する TLS サーバー - 顧客から証明書または秘密鍵を取得するホスティングプロバイダー - サブスクライバーからの証明書リクエストを解析する認証局 - ASN.1 楕円曲線パラメーターを解析するその他のもの。攻撃者がパラメーター値をコントロールできる場合、BN_mod_sqrt() を使用するその他のアプリケーションは、この DoS の問題に対して脆弱です。OpenSSL 1.0.2バージョンでは、証明書の初期解析中に公開鍵が解析されないため、無限ループを発生させることがわずかに困難になります。ただし、証明書の公開鍵が必要な何らかの操作を行うと、無限ループが発生します。特に、攻撃者は自己署名証明書を使用して、証明書署名の検証中にループを発生させる可能性があります。OpenSSL バージョン 1.0.2、1.1.1 および 3.0は、この問題の影響を受けます。これは 2022 年 3 月 15 日の 1.1.1n および 3.0.2のリリースで対処されました。OpenSSL 3.0.2で修正されました (3.0.0、3.0.1 が影響を受けました)。OpenSSL 1.1.1n で修正されました (1.1.1-1.1.1m が影響を受けました)。OpenSSL 1.0.2zd で修正されました (1.0.2-1.0.2zc が影響を受けました)。(CVE-2022-0778)\n\n  - c_rehash スクリプトはシェルのメタ文字を適切にサニタイズしておらず、コマンドインジェクションを防ぎません。このスクリプトは、一部のオペレーティングシステムによって、自動的に実行される方法で配布されます。このようなオペレーティングシステムでは、攻撃者がスクリプトの権限で任意のコマンドを実行する可能性があります。c_rehash スクリプトの使用は旧式と考えられており、OpenSSL rehash コマンドラインツールで置き換える必要があります。\n    OpenSSL 3.0.3で修正されました (3.0.0、3.0.1、3.0.2 が影響を受けました)。OpenSSL 1.1.1o で修正されました (1.1.1-1.1.1n が影響を受けました)。\n    OpenSSL 1.0.2ze で修正されました (1.0.2-1.0.2zd が影響を受けました)。(CVE-2022-1292)\n\n  - 関数「OCSP_basic_verify」は、OCSP 応答で署名者証明書を検証します。(デフォルト以外の) フラグ OCSP_NOCHECKS が使用される場合、応答署名証明書が検証に失敗した場合でも、応答は正になります (検証が成功したことを意味します)。「OCSP_basic_verify」のほとんどのユーザーは、OCSP_NOCHECKS フラグを使用しないことが予想されます。この場合、証明書検証が失敗した場合、「OCSP_basic_verify」関数は負の値 (致命的なエラーを示す) を返します。この場合の通常の期待される戻り値は 0 です。この問題は、コマンドライン OpenSSL ocsp アプリケーションにも影響を与えます。-no_cert_checks オプションのある ocsp 応答を検証する際に、\n    コマンドラインアプリケーションは、実際には失敗しているにもかかわらず、検証が成功していると報告します。この場合、間違いの正常な応答には、失敗を示し、明らかに成功した結果とは矛盾するエラーメッセージも付随します。OpenSSL 3.0.3で修正されました (3.0.0、3.0.1、3.0.2 が影響を受けました)。(CVE-2022-1343)\n\n  - RC4-MD5 暗号スイートの OpenSSL 3.0実装が、AAD データを MAC キーとして不適切に使用します。\n    これにより、MAC キーが自明に予測可能になります。攻撃者はこの問題を悪用し、中間者攻撃を実行して 1 つのエンドポイントから OpenSSL 3.0受信者に送信されるデータを変更することで、変更されたデータが MAC 整合性チェックにパスするようにする可能性があります。OpenSSL 3.0エンドポイントから非 OpenSSL 3.0エンドポイントに送信されたデータは、受信者によって常に拒否され、接続はその時点で失敗します。多くのアプリケーションプロトコルでは、最初にクライアントからサーバーにデータを送信する必要があります。\n    したがって、このような場合、OpenSSL 3.0以外のクライアントと通信する際に影響を受けるのは、OpenSSL 3.0サーバーのみです。両方のエンドポイントが OpenSSL 3.0の場合、攻撃者は両方向に送信されているデータを変更する可能性があります。この場合、アプリケーションプロトコルに関係なく、クライアントとサーバーの両方が影響を受ける可能性があります。注意: 攻撃者が存在しない場合、このバグにより、OpenSSL 3.0以外のエンドポイントと通信する OpenSSL 3.0エンドポイントが、この暗号スイートの使用する場合、ハンドシェイクの完了に失敗します。データの機密性はこの問題の影響を受けません。つまり、攻撃者はこの暗号スイートを使用して暗号化されたデータを復号化できません。変更のみが可能です。この攻撃が機能するためには、両方のエンドポイントが RC4-MD5 暗号スイートを正当にネゴシエートする必要があります。この暗号スイートは、デフォルトでは OpenSSL 3.0でコンパイルされておらず、デフォルトのプロバイダーまたはデフォルトの暗号スイートリストでは利用できません。TLSv1.3 がネゴシエートされた場合、この暗号スイートは使用されません。OpenSSL 3.0エンドポイントがこの暗号スイートを使用するには、以下が発生している必要があります。1) OpenSSL は (デフォルトではない) コンパイル時間オプション enable-weak-ssl-ciphers でコンパイルされている必要があります。2) OpenSSL は (アプリケーションコードまたは構成を通じて) レガシープロバイダーを明示的にロードしている必要があります。3) 暗号スイートは暗号スイートリストに明示的に追加されている必要があります。4) libssl セキュリティレベルが 0 (デフォルトは 1) に設定されている必要があります。5) TLSv1.3 より前のバージョンの SSL/TLS がネゴシエートされている必要があります。6) 両方のエンドポイントは、両方のエンドポイントに共通する他のエンドポイントよりも優先して RC4-MD5 暗号スイートをネゴシエートする必要があります。OpenSSL 3.0.3で修正されました (3.0.0、3.0.1、3.0.2 が影響を受けました)。(CVE-2022-1434)\n\n  - ハッシュテーブルを空にする OPENSSL_LH_flush() 関数に、削除されたハッシュテーブルエントリによって占有されているメモリの再利用を破損させるバグが含まれています。この関数は、証明書またはキーをデコードするときに使用されます。長期間有効なプロセスが証明書またはキーを定期的にデコードすると、そのメモリ使用率が無制限に拡大し、オペレーティングシステムによってプロセスが終了され、サービス拒否が引き起こされる可能性があります。\n    また、空のハッシュテーブルエントリをトラバースするのにさらに時間がかかるようになります。通常、このような長期間有効なプロセスは、クライアント証明書認証を受け入れるように構成された TLS クライアントまたは TLS サーバーです。この関数は OpenSSL 3.0バージョンに追加されたため、古いリリースはこの問題の影響を受けません。OpenSSL 3.0.3で修正されました (3.0.0、3.0.1、3.0.2 が影響を受けました)。(CVE-2022-1473)\n\n  - CVE-2022-1292で特定された c_rehash シェルコマンドインジェクションに加えて、コマンドインジェクションを防止するために c_rehash スクリプトがシェルメタ文字を適切にサニタイズしていないという状況がコードレビューで見つかりました。CVE-2022-1292 が修正されたとき、ハッシュされている証明書のファイル名がシェルを介して実行されるコマンドに渡される可能性があるスクリプトに他の場所があるとは発見されませんでした。このスクリプトは、一部</t>
+          <t>2010-12-15T00:00:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>173139</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Exploits are available</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>al2023_ALAS2023-2023-051.nasl</t>
-        </is>
-      </c>
+          <t>remote</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>51192</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>sensor</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>[{'type': 'unknown', 'url': 'https://www.itu.int/rec/T-REC-X.509/en', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://en.wikipedia.org/wiki/X.509', 'id_type': None, 'id': None}]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>['SSL/BrokenCAChain']</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2023-02-17T00:00:00</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2023-04-21T00:00:00</t>
+          <t>This script is Copyright (C) 2010-2020 Tenable Network Security, Inc.</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2023-03-21T00:00:00</t>
+          <t>General</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>SSL Certificate Cannot Be Trusted</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>173139</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+          <t>{'ja_JP': 'SSL 証明書は信頼できません', 'zh_CN': 'SSL 证书无法受到信任', 'zh_TW': '無法信任 SSL 憑證'}</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.19</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>[{'type': 'advisory', 'url': None, 'id_type': 'IAVA', 'id': '2022-A-0121-S'}, {'type': 'advisory', 'url': None, 'id_type': 'IAVA', 'id': '2022-A-0186-S'}, {'type': 'advisory', 'url': None, 'id_type': 'IAVA', 'id': '2022-A-0257-S'}, {'type': 'advisory', 'url': None, 'id_type': 'IAVA', 'id': '2022-A-0265-S'}, {'type': 'advisory', 'url': None, 'id_type': 'IAVA', 'id': '2022-A-0452-S'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-0778', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-0778'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-1292', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1292'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-1343', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1343'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-1434', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1434'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-1473', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-1473'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-2068', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-2068'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-2097', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-2097'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-3602', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-3602'}, {'type': 'vulnerability', 'id_type': 'cve', 'id': 'CVE-2022-3786', 'url': 'http://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-3786'}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/AL2023/ALAS-2023-051.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-0778.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-1292.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-1343.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-1434.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-1473.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-2068.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-2097.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-3602.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/cve/html/CVE-2022-3786.html', 'id_type': None, 'id': None}, {'type': 'unknown', 'url': 'https://alas.aws.amazon.com/faqs.html', 'id_type': None, 'id': None}]</t>
+          <t>['https://www.itu.int/rec/T-REC-X.509/en', 'https://en.wikipedia.org/wiki/X.509']</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>['Host/local_checks_enabled', 'Host/AmazonLinux/release', 'Host/AmazonLinux/rpm-list']</t>
+          <t>Purchase or generate a proper SSL certificate for this service.</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>{'ja_JP': 'このサービス用の適切な バージョン 1 証明書を、購入または生成してください。', 'zh_CN': '购买或生成适用于此服务的适当证书。', 'zh_TW': '購買或產生適合此伺服器的 SSL 憑證。'}</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>This script is Copyright (C) 2023 and is owned by Tenable, Inc. or an Affiliate thereof.</t>
+          <t>The SSL certificate for this service cannot be trusted.</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Amazon Linux Local Security Checks</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Amazon Linux 2023 : openssl, openssl-devel, openssl-libs (ALAS2023-2023-051)</t>
-        </is>
-      </c>
+          <t>{'ja_JP': 'このサービスの SSL 証明書は信頼できません。', 'zh_CN': '无法信任该服务的 SSL 证书。', 'zh_TW': '無法信任此服務的 SSL 憑證。'}</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>{'ja_JP': 'Amazon Linux 2023 : openssl、openssl-devel、openssl-libs (ALAS2023-2023-051)', 'zh_CN': 'Amazon Linux 2023：openssl、openssl-devel、openssl-libs (ALAS2023-2023-051)', 'zh_TW': 'Amazon Linux 2023：openssl、openssl-devel、openssl-libs (ALAS2023-2023-051)'}</t>
+          <t>nessus</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>['https://alas.aws.amazon.com/AL2023/ALAS-2023-051.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-0778.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-1292.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-1343.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-1434.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-1473.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-2068.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-2097.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-3602.html', 'https://alas.aws.amazon.com/cve/html/CVE-2022-3786.html', 'https://alas.aws.amazon.com/faqs.html']</t>
-        </is>
+          <t>en_US</t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
+        <v>51192</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Run 'dnf update openssl --releasever=2023.0.20230222 ' to update your system.</t>
+          <t>{'cvssv2_vector': 'CVSS2#AV:N/AC:L/Au:N/C:P/I:P/A:N', 'cvssv3_vector': 'CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:N', 'cvssv2_vector_base': 'AV:N/AC:L/Au:N/C:P/I:P/A:N', 'cvssv3_vector_base': 'AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:N', 'cvssv3_version': '3.0', 'cvssv2_score': 6.4, 'cvssv3_score': 6.5, 'cvssv2_temporal_vector': None, 'cvssv3_temporal_vector': None, 'cvssv2_temporal_vector_base': None, 'cvssv3_temporal_vector_base': None, 'cvssv2_temporal_score': None, 'cvssv3_temporal_score': None, 'cvssv2_environmental_vector': None, 'cvssv2_environmental_score': None, 'cvssv3_environmental_vector': None, 'cvssv3_environmental_score': None, 'rating': None, 'source': None, 'cvssv2_risk_factor': 'Medium', 'cvssv3_risk_factor': 'Medium'}</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>{'ja_JP': '「dnf update openssl --releasever=2023.0.20230222」を実行してシステムを更新してください。', 'zh_CN': "运行“'dnf update openssl --releasever=2023.0.20230222”以更新系统。", 'zh_TW': '執行「dnf update openssl --releasever=2023.0.20230222」以更新系統。'}</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>The remote Amazon Linux 2023 host is missing a security update.</t>
+          <t>['ja_JP', 'zh_CN', 'zh_TW', 'en_US']</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>{'ja_JP': 'リモートの Amazon Linux 2023 ホストに、セキュリティ更新プログラムがありません。', 'zh_CN': '远程 Amazon Linux 2023 主机缺少安全更新。', 'zh_TW': '遠端 Amazon Linux 2023 主機缺少一個安全性更新。'}</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>{'age_of_vuln': '365 - 730 days', 'cvss3_impact_score': 5.900000095367432, 'exploit_code_maturity': 'Functional', 'generated_at': '2023-06-22T06:00:58', 'predicted_impact_score': False, 'product_coverage': 'Very High', 'threat_intensity_last28_days': 'Very Low', 'threat_model_type': 'non_early_life', 'threat_model_version': 'v3', 'threat_recency': 'No recorded events', 'threat_sources_last28': 'No recorded events', 'tvs': 7.400000095367432, 'vulnerability_id': 'CVE-2022-2068'}</t>
-        </is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="AM3" t="n">
+        <v>3</v>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2022-03-15T00:00:00</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>{'IAVA': ['2022-A-0121-S', '2022-A-0186-S', '2022-A-0257-S', '2022-A-0265-S', '2022-A-0452-S']}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>nessus</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>en_US</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>173139</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>{'cvssv2_vector': 'CVSS2#AV:N/AC:L/Au:N/C:C/I:C/A:C', 'cvssv3_vector': 'CVSS:3.0/AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H', 'cvssv2_vector_base': 'AV:N/AC:L/Au:N/C:C/I:C/A:C', 'cvssv3_vector_base': 'AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H/E:F/RL:O/RC:C', 'cvssv3_version': '3.0', 'cvssv2_score': 10, 'cvssv3_score': 9.8, 'cvssv2_temporal_vector': None, 'cvssv3_temporal_vector': 'CVSS:3.0/E:F/RL:O/RC:C', 'cvssv2_temporal_vector_base': None, 'cvssv3_temporal_vector_base': 'E:F/RL:O/RC:C', 'cvssv2_temporal_score': 8.3, 'cvssv3_temporal_score': 9.1, 'cvssv2_environmental_vector': None, 'cvssv2_environmental_score': None, 'cvssv3_environmental_vector': None, 'cvssv3_environmental_score': None, 'rating': None, 'source': None, 'cvssv2_risk_factor': 'Critical', 'cvssv3_risk_factor': 'Critical'}</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>['ja_JP', 'zh_CN', 'zh_TW', 'en_US']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="AV3" t="n">
-        <v>5</v>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>{'file_name': 'all-202310181805.tar.gz', 'file_path': 'exports/nessus/v1', 'data_file_name': '51192', 'created_at': '2023-10-18T18:52:47', 'updated_at': '2023-10-18T18:52:47'}</t>
+        </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>12/15/2010</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>[{'xref_name': 'IAVA', 'xref_value': '2022-A-0121-S'}, {'xref_name': 'IAVA', 'xref_value': '2022-A-0186-S'}, {'xref_name': 'IAVA', 'xref_value': '2022-A-0257-S'}, {'xref_name': 'IAVA', 'xref_value': '2022-A-0265-S'}, {'xref_name': 'IAVA', 'xref_value': '2022-A-0452-S'}]</t>
+          <t>4/27/2020</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>['unix']</t>
+          <t>en</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>[{'label': 'Agentless Assessment', 'value': 'agentless_assessment'}, {'label': 'Frictionless Assessment Agent', 'value': 'fa_agent'}, {'label': 'Frictionless Assessment AWS', 'value': 'fa_aws'}, {'label': 'Nessus Agent', 'value': 'nessus_agent'}]</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+          <t>['ja', 'zh-CN', 'zh-TW', 'en']</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1446,92 +1253,18 @@
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>CVE-2022-2068</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>{'file_name': 'all-202310181805.tar.gz', 'file_path': 'exports/nessus/v1', 'data_file_name': '173139', 'created_at': '2023-10-18T18:52:41', 'updated_at': '2023-10-18T18:52:41'}</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>3/15/2022</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>2/17/2023</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>3/21/2023</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>4/21/2023</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>['ja', 'zh-CN', 'zh-TW', 'en']</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="BU3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>I</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
